--- a/biology/Histoire de la zoologie et de la botanique/Ambrogio_Soldani/Ambrogio_Soldani.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ambrogio_Soldani/Ambrogio_Soldani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambrogio Soldani, né le 16 juin 1736 à Pratovecchio et mort le 14 juillet 1808 à Florence, est un moine camaldule et naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Pratovecchio, en Toscane, le 16 juin 1736, il fut admis dans l’Ordre camaldule en 1751. Il partagea son temps entre les devoirs de son état et les recherches géologiques, s’attachant principalement à examiner les fossiles de testacés microscopiques. Boyle et Walker en Angleterre, Fichtel et Moll en Allemagne, Bianchi (Janus Plancus) en Italie, avaient commencé par leurs essais à faire apprécier l’importance de cette branche de l’histoire naturelle. Soldani se proposa d’examiner ces myriades de coquilles imperceptibles que l’on trouve dans les montagnes de Sienne et de Volterra. Le premier ouvrage qu’il publia sur ce sujet lui valut d’un côté la protection du grand-duc, qui le nomma professeur de mathématiques à l’Université de Sienne, et de l’autre les critiques de quelques savants, qui lui reprochèrent un certain désordre dans la classification des fossiles et trop peu d’exactitude dans l’indication des terres dont il les avait retirés.
 Soldani sentait l’imperfection des anciennes classifications, et c’est ce qui l’empêcha de les adopter. Celle de Linné n’était pas assez détaillée pour embrasser les nouvelles espèces, et quant à la méthode de Müller, établie tout entière sur l’organisation des mollusques, elle ne pouvait pas s’employer avec succès à une époque où l’anatomie de ces animaux n’avait pas été perfectionnée par les nouveaux procédés. Soldani ne s’était pas trompé sur les besoins réels de la géologie, et il aima mieux accumuler des faits qu’improviser des théories. Il s’était toutefois proposé de donner une description géologique, à peu près comme Cuvier et Brongniart l’ont exécutée pour les environs de Paris ; une partie de ce travail était achevée, et l’on ne sait pas ce qui a pu déterminer l’auteur à y renoncer.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Saggio orittografico, ed osservazioni sopra le terre nautiliche ed ammonitiche della Toscana, Sienne, 1780, in-4°. Adolph Modeer y fit des observations auxquelles répondit l’auteur.
 Testaceographia et zoophytographia parva et microscopica, ibid., avec un appendice, 1789-1798, 4 vol. in-fol. ;
